--- a/Excel-XLSX/UN-ETH.xlsx
+++ b/Excel-XLSX/UN-ETH.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="945">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>tdM4MR</t>
+    <t>a6aYsB</t>
   </si>
   <si>
     <t>1968</t>
@@ -2742,100 +2742,115 @@
     <t>515</t>
   </si>
   <si>
-    <t>773</t>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CAF</t>
   </si>
   <si>
     <t>518</t>
   </si>
   <si>
+    <t>749</t>
+  </si>
+  <si>
     <t>519</t>
   </si>
   <si>
-    <t>170543</t>
-  </si>
-  <si>
-    <t>8904</t>
-  </si>
-  <si>
     <t>520</t>
   </si>
   <si>
-    <t>3245484</t>
-  </si>
-  <si>
-    <t>118489</t>
+    <t>521</t>
+  </si>
+  <si>
+    <t>171105</t>
+  </si>
+  <si>
+    <t>8012</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>2272533</t>
+  </si>
+  <si>
+    <t>2438438</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>1876986</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>5640</t>
   </si>
   <si>
     <t>527</t>
   </si>
   <si>
-    <t>1150839</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>522</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>526</t>
-  </si>
-  <si>
     <t>528</t>
   </si>
   <si>
     <t>529</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>SAU</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
     <t>SLE</t>
   </si>
   <si>
-    <t>531</t>
-  </si>
-  <si>
-    <t>312509</t>
-  </si>
-  <si>
-    <t>43857</t>
-  </si>
-  <si>
-    <t>420589</t>
-  </si>
-  <si>
-    <t>9631</t>
-  </si>
-  <si>
-    <t>44929</t>
-  </si>
-  <si>
     <t>533</t>
   </si>
   <si>
-    <t>86696</t>
-  </si>
-  <si>
-    <t>606</t>
+    <t>317973</t>
+  </si>
+  <si>
+    <t>43961</t>
+  </si>
+  <si>
+    <t>420129</t>
+  </si>
+  <si>
+    <t>9547</t>
+  </si>
+  <si>
+    <t>92816</t>
   </si>
   <si>
     <t>535</t>
   </si>
   <si>
+    <t>90442</t>
+  </si>
+  <si>
+    <t>6399</t>
+  </si>
+  <si>
     <t>536</t>
   </si>
   <si>
-    <t>2458</t>
+    <t>630</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>2488</t>
   </si>
 </sst>
 </file>
@@ -3220,7 +3235,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V537"/>
+  <dimension ref="A1:V539"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -38221,10 +38236,10 @@
         <v>31</v>
       </c>
       <c r="N515" s="2" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="O515" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P515" s="2" t="s">
         <v>33</v>
@@ -38265,16 +38280,16 @@
         <v>904</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>384</v>
+        <v>908</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>385</v>
+        <v>909</v>
       </c>
       <c r="I516" s="1" t="s">
-        <v>386</v>
+        <v>910</v>
       </c>
       <c r="J516" s="2" t="s">
         <v>29</v>
@@ -38292,7 +38307,7 @@
         <v>33</v>
       </c>
       <c r="O516" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P516" s="2" t="s">
         <v>33</v>
@@ -38333,16 +38348,16 @@
         <v>904</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>170</v>
+        <v>384</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>171</v>
+        <v>385</v>
       </c>
       <c r="I517" s="1" t="s">
-        <v>171</v>
+        <v>386</v>
       </c>
       <c r="J517" s="2" t="s">
         <v>29</v>
@@ -38357,10 +38372,10 @@
         <v>31</v>
       </c>
       <c r="N517" s="2" t="s">
-        <v>908</v>
+        <v>33</v>
       </c>
       <c r="O517" s="2" t="s">
-        <v>398</v>
+        <v>44</v>
       </c>
       <c r="P517" s="2" t="s">
         <v>33</v>
@@ -38375,7 +38390,7 @@
         <v>33</v>
       </c>
       <c r="T517" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="U517" s="1" t="s">
         <v>34</v>
@@ -38401,16 +38416,16 @@
         <v>904</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>626</v>
+        <v>388</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>627</v>
+        <v>389</v>
       </c>
       <c r="I518" s="1" t="s">
-        <v>627</v>
+        <v>389</v>
       </c>
       <c r="J518" s="2" t="s">
         <v>29</v>
@@ -38425,10 +38440,10 @@
         <v>31</v>
       </c>
       <c r="N518" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O518" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="P518" s="2" t="s">
         <v>33</v>
@@ -38463,22 +38478,22 @@
         <v>22</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I519" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J519" s="2" t="s">
         <v>29</v>
@@ -38493,25 +38508,25 @@
         <v>31</v>
       </c>
       <c r="N519" s="2" t="s">
-        <v>172</v>
+        <v>912</v>
       </c>
       <c r="O519" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="P519" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q519" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R519" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S519" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T519" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="P519" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q519" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R519" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S519" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T519" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="U519" s="1" t="s">
         <v>34</v>
@@ -38531,22 +38546,22 @@
         <v>22</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>309</v>
+        <v>626</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>310</v>
+        <v>627</v>
       </c>
       <c r="I520" s="1" t="s">
-        <v>311</v>
+        <v>627</v>
       </c>
       <c r="J520" s="2" t="s">
         <v>29</v>
@@ -38561,10 +38576,10 @@
         <v>31</v>
       </c>
       <c r="N520" s="2" t="s">
-        <v>911</v>
+        <v>44</v>
       </c>
       <c r="O520" s="2" t="s">
-        <v>912</v>
+        <v>33</v>
       </c>
       <c r="P520" s="2" t="s">
         <v>33</v>
@@ -38579,7 +38594,7 @@
         <v>33</v>
       </c>
       <c r="T520" s="2" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="U520" s="1" t="s">
         <v>34</v>
@@ -38599,22 +38614,22 @@
         <v>22</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="J521" s="2" t="s">
         <v>29</v>
@@ -38629,31 +38644,31 @@
         <v>31</v>
       </c>
       <c r="N521" s="2" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="O521" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P521" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q521" s="2" t="s">
-        <v>914</v>
+        <v>33</v>
       </c>
       <c r="R521" s="2" t="s">
-        <v>915</v>
+        <v>33</v>
       </c>
       <c r="S521" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T521" s="2" t="s">
-        <v>916</v>
+        <v>33</v>
       </c>
       <c r="U521" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V521" s="2" t="s">
-        <v>917</v>
+        <v>33</v>
       </c>
     </row>
     <row r="522">
@@ -38667,22 +38682,22 @@
         <v>22</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>746</v>
+        <v>309</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>747</v>
+        <v>310</v>
       </c>
       <c r="I522" s="1" t="s">
-        <v>748</v>
+        <v>311</v>
       </c>
       <c r="J522" s="2" t="s">
         <v>29</v>
@@ -38697,10 +38712,10 @@
         <v>31</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>54</v>
+        <v>916</v>
       </c>
       <c r="O522" s="2" t="s">
-        <v>68</v>
+        <v>917</v>
       </c>
       <c r="P522" s="2" t="s">
         <v>33</v>
@@ -38715,7 +38730,7 @@
         <v>33</v>
       </c>
       <c r="T522" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U522" s="1" t="s">
         <v>34</v>
@@ -38735,22 +38750,22 @@
         <v>22</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="I523" s="1" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="J523" s="2" t="s">
         <v>29</v>
@@ -38765,7 +38780,7 @@
         <v>31</v>
       </c>
       <c r="N523" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="O523" s="2" t="s">
         <v>33</v>
@@ -38774,22 +38789,22 @@
         <v>33</v>
       </c>
       <c r="Q523" s="2" t="s">
-        <v>33</v>
+        <v>919</v>
       </c>
       <c r="R523" s="2" t="s">
-        <v>33</v>
+        <v>920</v>
       </c>
       <c r="S523" s="2" t="s">
         <v>33</v>
       </c>
       <c r="T523" s="2" t="s">
-        <v>33</v>
+        <v>921</v>
       </c>
       <c r="U523" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V523" s="2" t="s">
-        <v>33</v>
+        <v>922</v>
       </c>
     </row>
     <row r="524">
@@ -38809,16 +38824,16 @@
         <v>904</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>779</v>
+        <v>746</v>
       </c>
       <c r="H524" s="1" t="s">
-        <v>780</v>
+        <v>747</v>
       </c>
       <c r="I524" s="1" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="J524" s="2" t="s">
         <v>29</v>
@@ -38833,10 +38848,10 @@
         <v>31</v>
       </c>
       <c r="N524" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O524" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="P524" s="2" t="s">
         <v>33</v>
@@ -38871,22 +38886,22 @@
         <v>22</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="I525" s="1" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="J525" s="2" t="s">
         <v>29</v>
@@ -38901,7 +38916,7 @@
         <v>31</v>
       </c>
       <c r="N525" s="2" t="s">
-        <v>883</v>
+        <v>62</v>
       </c>
       <c r="O525" s="2" t="s">
         <v>33</v>
@@ -38919,7 +38934,7 @@
         <v>33</v>
       </c>
       <c r="T525" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="U525" s="1" t="s">
         <v>34</v>
@@ -38945,16 +38960,16 @@
         <v>904</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="I526" s="1" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
       <c r="J526" s="2" t="s">
         <v>29</v>
@@ -38972,7 +38987,7 @@
         <v>33</v>
       </c>
       <c r="O526" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="P526" s="2" t="s">
         <v>33</v>
@@ -39007,22 +39022,22 @@
         <v>22</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>814</v>
+        <v>178</v>
       </c>
       <c r="H527" s="1" t="s">
-        <v>815</v>
+        <v>179</v>
       </c>
       <c r="I527" s="1" t="s">
-        <v>815</v>
+        <v>179</v>
       </c>
       <c r="J527" s="2" t="s">
         <v>29</v>
@@ -39037,10 +39052,10 @@
         <v>31</v>
       </c>
       <c r="N527" s="2" t="s">
-        <v>33</v>
+        <v>925</v>
       </c>
       <c r="O527" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P527" s="2" t="s">
         <v>33</v>
@@ -39055,7 +39070,7 @@
         <v>33</v>
       </c>
       <c r="T527" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="U527" s="1" t="s">
         <v>34</v>
@@ -39075,22 +39090,22 @@
         <v>22</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>352</v>
+        <v>531</v>
       </c>
       <c r="H528" s="1" t="s">
-        <v>353</v>
+        <v>532</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>354</v>
+        <v>532</v>
       </c>
       <c r="J528" s="2" t="s">
         <v>29</v>
@@ -39108,7 +39123,7 @@
         <v>33</v>
       </c>
       <c r="O528" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="P528" s="2" t="s">
         <v>33</v>
@@ -39143,22 +39158,22 @@
         <v>22</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>219</v>
+        <v>810</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>220</v>
+        <v>811</v>
       </c>
       <c r="I529" s="1" t="s">
-        <v>220</v>
+        <v>812</v>
       </c>
       <c r="J529" s="2" t="s">
         <v>29</v>
@@ -39173,10 +39188,10 @@
         <v>31</v>
       </c>
       <c r="N529" s="2" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="O529" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P529" s="2" t="s">
         <v>33</v>
@@ -39211,22 +39226,22 @@
         <v>22</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>924</v>
+        <v>814</v>
       </c>
       <c r="H530" s="1" t="s">
-        <v>925</v>
+        <v>815</v>
       </c>
       <c r="I530" s="1" t="s">
-        <v>925</v>
+        <v>815</v>
       </c>
       <c r="J530" s="2" t="s">
         <v>29</v>
@@ -39241,10 +39256,10 @@
         <v>31</v>
       </c>
       <c r="N530" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O530" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="P530" s="2" t="s">
         <v>33</v>
@@ -39285,16 +39300,16 @@
         <v>904</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>926</v>
+        <v>352</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>927</v>
+        <v>353</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>927</v>
+        <v>354</v>
       </c>
       <c r="J531" s="2" t="s">
         <v>29</v>
@@ -39312,7 +39327,7 @@
         <v>33</v>
       </c>
       <c r="O531" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="P531" s="2" t="s">
         <v>33</v>
@@ -39347,22 +39362,22 @@
         <v>22</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="I532" s="1" t="s">
-        <v>122</v>
+        <v>220</v>
       </c>
       <c r="J532" s="2" t="s">
         <v>29</v>
@@ -39377,10 +39392,10 @@
         <v>31</v>
       </c>
       <c r="N532" s="2" t="s">
-        <v>929</v>
+        <v>66</v>
       </c>
       <c r="O532" s="2" t="s">
-        <v>930</v>
+        <v>54</v>
       </c>
       <c r="P532" s="2" t="s">
         <v>33</v>
@@ -39395,7 +39410,7 @@
         <v>33</v>
       </c>
       <c r="T532" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="U532" s="1" t="s">
         <v>34</v>
@@ -39421,16 +39436,16 @@
         <v>904</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>152</v>
+        <v>362</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>558</v>
+        <v>929</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>559</v>
+        <v>930</v>
       </c>
       <c r="I533" s="1" t="s">
-        <v>559</v>
+        <v>930</v>
       </c>
       <c r="J533" s="2" t="s">
         <v>29</v>
@@ -39445,13 +39460,13 @@
         <v>31</v>
       </c>
       <c r="N533" s="2" t="s">
-        <v>931</v>
+        <v>33</v>
       </c>
       <c r="O533" s="2" t="s">
-        <v>932</v>
+        <v>60</v>
       </c>
       <c r="P533" s="2" t="s">
-        <v>933</v>
+        <v>33</v>
       </c>
       <c r="Q533" s="2" t="s">
         <v>33</v>
@@ -39463,7 +39478,7 @@
         <v>33</v>
       </c>
       <c r="T533" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="U533" s="1" t="s">
         <v>34</v>
@@ -39483,22 +39498,22 @@
         <v>22</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E534" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="I534" s="1" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="J534" s="2" t="s">
         <v>29</v>
@@ -39513,10 +39528,10 @@
         <v>31</v>
       </c>
       <c r="N534" s="2" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="O534" s="2" t="s">
-        <v>594</v>
+        <v>933</v>
       </c>
       <c r="P534" s="2" t="s">
         <v>33</v>
@@ -39557,16 +39572,16 @@
         <v>904</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>379</v>
+        <v>152</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>616</v>
+        <v>558</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="I535" s="1" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="J535" s="2" t="s">
         <v>29</v>
@@ -39581,14 +39596,14 @@
         <v>31</v>
       </c>
       <c r="N535" s="2" t="s">
-        <v>275</v>
+        <v>934</v>
       </c>
       <c r="O535" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="P535" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="P535" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="Q535" s="2" t="s">
         <v>33</v>
       </c>
@@ -39599,7 +39614,7 @@
         <v>33</v>
       </c>
       <c r="T535" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="U535" s="1" t="s">
         <v>34</v>
@@ -39625,16 +39640,16 @@
         <v>904</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="I536" s="1" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="J536" s="2" t="s">
         <v>29</v>
@@ -39649,13 +39664,13 @@
         <v>31</v>
       </c>
       <c r="N536" s="2" t="s">
-        <v>68</v>
+        <v>938</v>
       </c>
       <c r="O536" s="2" t="s">
-        <v>50</v>
+        <v>697</v>
       </c>
       <c r="P536" s="2" t="s">
-        <v>33</v>
+        <v>939</v>
       </c>
       <c r="Q536" s="2" t="s">
         <v>33</v>
@@ -39667,7 +39682,7 @@
         <v>33</v>
       </c>
       <c r="T536" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="U536" s="1" t="s">
         <v>34</v>
@@ -39687,60 +39702,196 @@
         <v>22</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>904</v>
       </c>
       <c r="F537" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="J537" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N537" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O537" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="P537" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q537" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R537" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S537" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T537" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U537" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V537" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J538" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N538" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O538" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P538" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q538" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R538" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S538" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T538" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U538" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V538" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F539" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G537" s="1" t="s">
+      <c r="G539" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H537" s="1" t="s">
+      <c r="H539" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I537" s="1" t="s">
+      <c r="I539" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J537" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K537" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L537" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M537" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N537" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="O537" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="P537" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q537" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R537" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S537" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T537" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U537" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V537" s="2" t="s">
+      <c r="J539" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N539" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="O539" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P539" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q539" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R539" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S539" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T539" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U539" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V539" s="2" t="s">
         <v>33</v>
       </c>
     </row>
